--- a/amdocs cyprus14thjune.xlsx
+++ b/amdocs cyprus14thjune.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B326D6-FC46-486D-BA30-E34015357A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9100BCF8-399C-4BD1-8A42-C9F1410930C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E4680D64-D8F5-456F-BBBE-73DB82E0C65B}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E4680D64-D8F5-456F-BBBE-73DB82E0C65B}"/>
   </bookViews>
   <sheets>
     <sheet name="14-062021" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="15-06-2021" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t xml:space="preserve">Difference between High-Level and Low-Level Languages, Difference between Procedural, Structured and Object-Oriented Programming Languages, Difference </t>
   </si>
@@ -199,10 +199,109 @@
     <t xml:space="preserve">Angular , spring , django </t>
   </si>
   <si>
-    <t xml:space="preserve">QNA : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POC : </t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Package Naming convention:</t>
+  </si>
+  <si>
+    <t>com.company.projectName.purposeofthepackage</t>
+  </si>
+  <si>
+    <t>com.amdocs.employeemanagementsystem.model</t>
+  </si>
+  <si>
+    <t>this package is used to hold the classes which are required to transport the data in our application.</t>
+  </si>
+  <si>
+    <t>Lombok jar : will provide the annotations which are required to genrate setters , getters , toString , constructor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we used lombok jar to generate setters, getter, constrcutor </t>
+  </si>
+  <si>
+    <t>com.amdocs.employeemanagementsystem.service</t>
+  </si>
+  <si>
+    <t>this package is used to hold bussiness logic for our application.</t>
+  </si>
+  <si>
+    <t>EOM</t>
+  </si>
+  <si>
+    <t>Exception : it is an abnormal situation which will occur during the execution of the program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try catch finally </t>
+  </si>
+  <si>
+    <t>throws</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>try {</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>finally{</t>
+  </si>
+  <si>
+    <t>try{</t>
+  </si>
+  <si>
+    <t>catch(Name of the exception ref ){</t>
+  </si>
+  <si>
+    <t>multiple catch blcoks</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>will hold the code where exeception may be raised.</t>
+  </si>
+  <si>
+    <t>is used to handle the exception ==&gt; we should provide a solution to solve the problem.</t>
+  </si>
+  <si>
+    <t>will be executed irrespective of the situation.</t>
+  </si>
+  <si>
+    <t>com.amdocs.employeemanagementsystem.exeption</t>
+  </si>
+  <si>
+    <t>I will hold all user defined exceptions</t>
+  </si>
+  <si>
+    <t>Whenever you r creating the custom Exception class then you should have a parameterized constructor &amp; you have to override the toString method</t>
+  </si>
+  <si>
+    <t>Why parameterized : to provide the name of the exception</t>
+  </si>
+  <si>
+    <t>super() ===&gt; to call the base class constructor .</t>
   </si>
 </sst>
 </file>
@@ -568,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1099E542-A3A8-4C7C-9F00-5E0AAB8B2299}">
   <dimension ref="D3:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,17 +928,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
         <v>53</v>
       </c>
@@ -852,25 +954,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47E7176-5A06-405B-8369-DF8E369C2E5C}">
-  <dimension ref="F4:F5"/>
+  <dimension ref="D4:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="6:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
